--- a/TOM_comments_oct.xlsx
+++ b/TOM_comments_oct.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="959">
   <si>
     <t xml:space="preserve">♯</t>
   </si>
@@ -646,7 +646,7 @@
     <t xml:space="preserve">Happy Halloween Miko!</t>
   </si>
   <si>
-    <t xml:space="preserve">You’re so fast at recognizing most letters and their phonics, and are able to count up to 30 with some help – you really enjoyed the ‘duck, duck, goose’ game, and your Unicorn Princess costume was so beautiful. Well done!</t>
+    <t xml:space="preserve">You’re so fast at recognizing most letters and their phonics, and are able to count up to 20 with some help – you really enjoyed the ‘duck, duck, goose’ game, and your Unicorn Princess costume was so beautiful. Well done!</t>
   </si>
   <si>
     <t xml:space="preserve">unicorn princess</t>
@@ -769,6 +769,9 @@
     <t xml:space="preserve">Happy Halloween Reika!</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s great to have you back in AS class, you’ve been so happy this month. You loved the ‘duck, duck, goose’ game, and were great at hopscotch! You looked awesome as Princess Elsa too. Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa</t>
   </si>
   <si>
@@ -787,6 +790,9 @@
     <t xml:space="preserve">Great job Rio! You did very well learning the ‘cooking’ and ‘world food’ flash cards this month, and loved making the pig craft! You’re always so happy and friendly in class, and have been reading the sight word story confidently – well done!</t>
   </si>
   <si>
+    <t xml:space="preserve">BREAK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">You loved making the XX craft, and you remembered the culture phrase very quick (“apple pie is yummy!” / “English muffin is yucky!”).</t>
   </si>
   <si>
@@ -832,6 +838,9 @@
     <t xml:space="preserve">Happy Halloween Rito!</t>
   </si>
   <si>
+    <t xml:space="preserve">You did a great job saying the whole sight word reader this month, and really loved the ‘duck, duck, goose’ game. Your handwriting is getting so good, and you had a great time at the Halloween event. Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ryosei N</t>
   </si>
   <si>
@@ -847,6 +856,9 @@
     <t xml:space="preserve">Happy Halloween Ryosei!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’re so fast at recognizing letters and their phonics now, and are able to count up to 30 with some help – you really enjoyed the ‘duck, duck, goose’ game, and your PJ masks costume was awesome. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">pj masks</t>
   </si>
   <si>
@@ -865,6 +877,9 @@
     <t xml:space="preserve">Happy Halloween Ryosuke!</t>
   </si>
   <si>
+    <t xml:space="preserve">You really loved going trick or treating to get your snack during Halloween week, and it’s great to see you counting to 10 by yourself! I noticed your handwriting is improving a lot too. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sana</t>
   </si>
   <si>
@@ -883,6 +898,9 @@
     <t xml:space="preserve">Happy Halloween Sana!</t>
   </si>
   <si>
+    <t xml:space="preserve">You learned the whole sight word reader so fast this month, and really loved the ‘duck, duck, goose’ game. Your handwriting is excellent, and you looked great as Princess Sophia. Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sophia</t>
   </si>
   <si>
@@ -901,6 +919,9 @@
     <t xml:space="preserve">Happy Halloween Sara!</t>
   </si>
   <si>
+    <t xml:space="preserve">You really loved the ‘duck, duck, goose’ game, and it’s great to see you counting to 20 with a bit of help! You were having so much fun in your cat costume too. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat, </t>
   </si>
   <si>
@@ -934,6 +955,9 @@
     <t xml:space="preserve">Happy Halloween Shotaro!</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s great to see you speaking with a big voice recently, you’ve been so happy in class this month and learned many of the flash cards! You loved the ‘go away scary monster’ song, and were great at hopscotch! Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">robot guy</t>
   </si>
   <si>
@@ -955,6 +979,9 @@
     <t xml:space="preserve">Happy Halloween So!</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s great to see you speaking with a big voice recently, you’ve been so happy in class this month and learned many of the flash cards! You loved the ‘go away scary monster’ song, and were great at hopscotch – we loved your Superman costume too!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">superman</t>
   </si>
   <si>
@@ -964,6 +991,9 @@
     <t xml:space="preserve">Happy Halloween Soichiro!</t>
   </si>
   <si>
+    <t xml:space="preserve">Welcome to AS class! It’s great to see you having fun in class and speaking with a big voice. You loved the ‘go away scary monster’ song, and were great at hopscotch! Well done.</t>
+  </si>
+  <si>
     <t xml:space="preserve">batman</t>
   </si>
   <si>
@@ -1006,6 +1036,9 @@
     <t xml:space="preserve">Happy Halloween Taichi!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’re so fast at recognizing many letters and their phonics, and are able to count up to 20 with some help – you really enjoyed the ‘duck, duck, goose’ game, and your Prince Taichi costume was great! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">prince taichi, phonics, theme fc</t>
   </si>
   <si>
@@ -1027,6 +1060,9 @@
     <t xml:space="preserve">Happy Halloween Taiga!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’re fast at recognizing many letters and their phonics now, and are able to count up to 20 with some help – you really enjoyed the ‘duck, duck, goose’ game, and your jack-o-lantern costume was awesome. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jack-o-lantern</t>
   </si>
   <si>
@@ -1051,6 +1087,9 @@
     <t xml:space="preserve">Happy Halloween Togo!</t>
   </si>
   <si>
+    <t xml:space="preserve">Welcome to AS class! It’s great to see you having fun in class and speaking with a big voice. You loved the ‘duck, duck, goose’ game, and were great at hopscotch! Well done.</t>
+  </si>
+  <si>
     <t xml:space="preserve">devil</t>
   </si>
   <si>
@@ -1069,6 +1108,9 @@
     <t xml:space="preserve">Happy Halloween Toko!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’ve been doing so well in class, especially counting up to 20 with some help. You loved the hopscotch and ‘duck, duck, goose’ games, and always learn the flash cards so quickly. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tomoka</t>
   </si>
   <si>
@@ -1084,6 +1126,9 @@
     <t xml:space="preserve">Happy Halloween Tomoka!</t>
   </si>
   <si>
+    <t xml:space="preserve">You learned the whole sight word reader so fast, and your phonics are improving every month. You really enjoyed the ‘duck, duck, goose’ game, and we loved your fairy princess costume too. Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tsumugi</t>
   </si>
   <si>
@@ -1099,6 +1144,9 @@
     <t xml:space="preserve">Happy Halloween Tsumugi!</t>
   </si>
   <si>
+    <t xml:space="preserve">You really loved the ‘duck, duck, goose’ game, and it’s great to see you counting to 20 with a bit of help! You had so much fun during the Halloween event, and looked great in your Elsa costume. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Utako</t>
   </si>
   <si>
@@ -1117,6 +1165,9 @@
     <t xml:space="preserve">Happy Halloween Utako!</t>
   </si>
   <si>
+    <t xml:space="preserve">You learned the whole sight word reader so fast this month, and really loved the ‘duck, duck, goose’ game. Your handwriting is excellent, and you looked great as Minnie Mouse. Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">mini mouse</t>
   </si>
   <si>
@@ -1138,6 +1189,9 @@
     <t xml:space="preserve">Happy Halloween Yui!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’re speaking so confidently, especially during calendar time “Today is Saturday!”. You really enjoyed the ‘duck, duck, goose’ game, and your phonics are improving a lot. Great job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yui K</t>
   </si>
   <si>
@@ -1150,6 +1204,9 @@
     <t xml:space="preserve">Awesome work Yui. You did very well learning the ‘cooking’ and ‘world food’ flash cards this month, and loved playing the ‘lunchtime!’ game! It’s great to see you become more confident when practicing your handwriting too – well done!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’ve been doing so well in class, especially speaking with a big voice during circle time. You enjoyed the hopscotch and ‘duck, duck, goose’ games, and looked great in your Aurora costume! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">aurora</t>
   </si>
   <si>
@@ -1168,6 +1225,9 @@
     <t xml:space="preserve">Well done this month Yui, you’ve been getting along great in class, and having so much fun especially during calendar, and song &amp; dance time! It was so great having you with us at Nifrel, you were very curious of all the sea animals, and were laughing at the cheeky lemurs in the mammal exhibit.</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s so great to see your confidence grow each month! I can see you’re excited for the class now when you arrive. You’ve learned all the songs and dances so quickly, and are always putting your hand up to participate in class – you looked great as Princess Cinderella too! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yua</t>
   </si>
   <si>
@@ -1183,6 +1243,9 @@
     <t xml:space="preserve">Happy Halloween Yua!</t>
   </si>
   <si>
+    <t xml:space="preserve">You did a great job learning the Halloween and ‘Kids Games’ flash cards this month, and really loved the ‘duck, duck, goose’ and ‘thumb war’ games. Your handwriting is excellent, and you looked great as Princess Yua! Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">princess</t>
   </si>
   <si>
@@ -1195,6 +1258,9 @@
     <t xml:space="preserve">Happy Halloween Yuma!</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s great to have you back in AS class, you’ve been so happy this month. You loved the ‘duck, duck, goose’ game, and were great at hopscotch! We loved your ghost costume too. Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ghost, welcome back</t>
   </si>
   <si>
@@ -1216,6 +1282,9 @@
     <t xml:space="preserve">Happy Halloween Yuumi!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’ve been doing so well in class, especially counting up to 15 with some help. You loved the hopscotch and ‘duck, duck, goose’ games, and learned most of the flash cards so quickly. Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">princess yumi</t>
   </si>
   <si>
@@ -1240,6 +1309,9 @@
     <t xml:space="preserve">Happy Halloween Yuuri!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’re so fast at recognizing many letters and their phonics, and are able to count up to 20 with some help – you really enjoyed the ‘duck, duck, goose’ game, and you loved going outside the class to go trick or treating! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">walking walking</t>
   </si>
   <si>
@@ -1258,6 +1330,9 @@
     <t xml:space="preserve">Good work this month Yuki. You learned the grid / map reading method really quickly, and understood the higher/lower game right away too. You really loved the balloon race we did with Mizuki, and you’re really good at the “magic e” phonics exercises – excellent!</t>
   </si>
   <si>
+    <t xml:space="preserve">mickey, police</t>
+  </si>
+  <si>
     <t xml:space="preserve">flash card matching, flash card listening, calendar</t>
   </si>
   <si>
@@ -1273,6 +1348,9 @@
     <t xml:space="preserve">Well done this month Mizuki. You really loved the ‘balloon race’ we did with Yuki, and it’s great to see you understand and remember “North, East, South West” so fast! You picked up the “magic e” phonics very fast, and were really good at suggesting ingredients when we made our recipe books!</t>
   </si>
   <si>
+    <t xml:space="preserve">belle</t>
+  </si>
+  <si>
     <t xml:space="preserve">snack time</t>
   </si>
   <si>
@@ -1291,6 +1369,12 @@
     <t xml:space="preserve">Well done this month Kai, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is getting very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive.</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Kai!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s so great to see you speaking more and more each week! You’re saying the month, day, weather, and many of the flash cards! You make me and Tomomi laugh a lot – thank you for being my student!</t>
+  </si>
+  <si>
     <t xml:space="preserve">craft, abc, phonics</t>
   </si>
   <si>
@@ -1309,6 +1393,15 @@
     <t xml:space="preserve">Well done this month Keita, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive – great job!</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Keita!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s great to see you having so much fun in class, you are remembering new words each month which is great to see! You really enjoyed the “go away scary monsters” song this month, and everyone loved your Buzz Lightyear costume! Well done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buzz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Song &amp; dance, sight word reader</t>
   </si>
   <si>
@@ -1324,6 +1417,9 @@
     <t xml:space="preserve">Thank you for being such a good student Reika! You’re such a happy girl, and you are always helping other kids in class. You loved dancing to the ‘peanut butter &amp; jelly’ song, and have been saying the sight words (“we”, “like”, “to”) clearly with a big voice – awesome!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’re growing up so fast, and always saying “please” and “thank you” during class – you’re in such a good mood when you’re at Super epion, you really enjoyed Halloween week, and love playing with the other kids – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Itsuki</t>
   </si>
   <si>
@@ -1339,6 +1435,15 @@
     <t xml:space="preserve">Thank you for being such a good student Itsuki! You’re such a happy boy, and you are always helping other kids in class. You loved dancing to the ‘peanut butter &amp; jelly’ song, and have been saying the sight words (“we”, “like”, “to”) with a big voice – awesome!</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Itsuki!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s great to see you speaking more and more each week! You’re saying most of the month, day, weather, and Halloween flash cards! You are so well behaved, and make me and Tomomi laugh a lot – we loved your Olaf costume!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olaf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kotaro</t>
   </si>
   <si>
@@ -1354,6 +1459,12 @@
     <t xml:space="preserve">Well done this month Kotaro! It’s so great to hear you saying some of the months “June!” “July!”, and “please!” when we do ‘knock knock knock’ - I’m excited to hear you talking more and more – Mom &amp; Dad should be very proud!</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Kotaro!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are always so well behaved in class, and are speaking more and more each week! It’s great to see Mom so happy when you’re speaking English, let’s learn even more next month!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidehito</t>
   </si>
   <si>
@@ -1369,7 +1480,10 @@
     <t xml:space="preserve">I’m so excited for you to start PS class in November Hidehito! I know you’re going to do so well, and make new friends. I have seen you improve so much over the last year, let’s have fun in October!</t>
   </si>
   <si>
-    <t xml:space="preserve">to PS</t>
+    <t xml:space="preserve">Good luck in PS class next month Hidehito! It’s been so nice being your teacher this year, I’ve seen you improve every month, and I know you’re going to do great in A-room! Tomomi &amp; I will miss you, but will still get to see you. Congratulations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? away?</t>
   </si>
   <si>
     <t xml:space="preserve">Good work in this this month XXX!</t>
@@ -1390,6 +1504,12 @@
     <t xml:space="preserve">Well done this month Hikari. You’ve been improving so much over the last few months, and your listening skills are excellent! I can see you’ve been trying hard, and have been very kind to the new kids in First Adventure – thank you!</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Hikari!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have been improving a lot recently, and are now able to listen to a word then find the correct flash card from memory, which is so impressive! It’s great to see you having fun learning English – well done.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Good job this month XXX!</t>
   </si>
   <si>
@@ -1402,6 +1522,9 @@
     <t xml:space="preserve">Great job this month Hinata! You’re so comfortable in class now, and have learned everything so quickly! You’ve been great at listening to the ‘cooking’ words, then finding the correct flash card – well done!</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job this month Hinata! It’s great to see you having so much fun in class, you are remembering new words each month which is great to see! You really enjoyed the “go away scary monsters” song this month, and you had so much fun during Halloween week! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Well done this month XXX!</t>
   </si>
   <si>
@@ -1417,6 +1540,9 @@
     <t xml:space="preserve">I’m so excited for you to start PS class in November Haruki! I know you’re going to do so well, and make new friends. I have seen you improve so much over the last year, let’s have fun in October!</t>
   </si>
   <si>
+    <t xml:space="preserve">Good luck in PS class next month Haruki! It’s been so nice being your teacher this year, I’ve seen you improve every month, and I know you’re going to do great in A-room! Tomomi &amp; I will miss you, but will still get to see you. Congratulations!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masaharu</t>
   </si>
   <si>
@@ -1426,6 +1552,9 @@
     <t xml:space="preserve">Thank you for being such a good student Masaharu! You’re such a happy boy, and you are so well behaved. You loved dancing to the ‘peanut butter &amp; jelly’ song, and have been saying the sight words (“we”, “like”, “to”) with a big voice – awesome!</t>
   </si>
   <si>
+    <t xml:space="preserve">Good luck in PS class next month Masaharu! It’s been so nice being your teacher, I’ve seen you improve so quickly, and I know you’re going to do great in A-room! Tomomi &amp; I will miss you, but will still get to see you. Congratulations!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Misa</t>
   </si>
   <si>
@@ -1435,6 +1564,12 @@
     <t xml:space="preserve">Well done this month Misa, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive.</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Misa!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re always so excited when you arrive at Super epion. Tomomi &amp; I are always so impressed with your English, and you’re always repeating with a big voice! You had a lot of fun during Halloween week, and we loved your Olaf costume! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">It’s so nice having you in class Nozomi, you and Hikari have been having so much fun when in class together! You’re starting to speak a lot, and have been yelling “let’s go!” during the walking song. You learned the farm animals song and flash card so quickly this month – excellent!</t>
   </si>
   <si>
@@ -1447,6 +1582,15 @@
     <t xml:space="preserve">Well done this month Nozomi. You’re speaking so much English now, and are always so friendly with the other kids in class. You’ve been saying the sight words (“we”, “like”, “to”) with a big voice, and your listening skills are excellent!</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Nozomi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re growing up so fast, and always saying “please” and “thank you” during class – you’re in such a good mood when you’re at Super epion, and have been helping me count the green hearts this month! You looked great in your Snow White costume too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow white</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isshin</t>
   </si>
   <si>
@@ -1462,6 +1606,12 @@
     <t xml:space="preserve">Well done this month Isshin, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is getting very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive.</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Isshin!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s great to see you learning the dances so quickly, and singing along during ABC time! Thanks for always being so happy when you arrive at Super epion!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keiichi</t>
   </si>
   <si>
@@ -1477,6 +1627,9 @@
     <t xml:space="preserve">Great job this month Keiichi, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is getting very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive. Thanks for always being full of energy when you arrive at Super epion!</t>
   </si>
   <si>
+    <t xml:space="preserve">Good luck in PS class next month Keiichi! It’s been so nice being your teacher this year, I’ve seen you improve every month, and I know you’re going to do great in A-room! Tomomi &amp; I will miss you, but will still get to see you. Congratulations!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sousuke</t>
   </si>
   <si>
@@ -1492,6 +1645,12 @@
     <t xml:space="preserve">Well done this month Sousuke, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive.</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Sousuke!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ve been improving a lot recently, and are now able to listen to a word then find the correct flash card from memory, which is so impressive! You can also say all of the sight words so clearly. It’s great to see you having fun learning English – well done.</t>
+  </si>
+  <si>
     <t xml:space="preserve">You had so much fun this month XXX</t>
   </si>
   <si>
@@ -1504,6 +1663,9 @@
     <t xml:space="preserve">Welcome to First Adventure Sousuke! You’re already so comfortable in class, and have been saying many of the months, ‘cooking’ flash cards, and some of the sight words! You’re a very smart and kind boy, Mom &amp; Dad should be proud!</t>
   </si>
   <si>
+    <t xml:space="preserve">You’ve been very well behaved in class, and are always so good at unpacking your bag when you arrive! You are great at making crafts, and love to collect the green hearts during flash card time! Well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sodai</t>
   </si>
   <si>
@@ -1519,6 +1681,9 @@
     <t xml:space="preserve">I’m so excited for you to start PS class in November Sodai! I know you’re going to do so well, and make new friends. I have seen you improve so much over the last year, let’s have fun in October!</t>
   </si>
   <si>
+    <t xml:space="preserve">Good luck in PS class next month Sodai! It’s been so nice being your teacher this year, I’ve seen you improve every month, and I know you’re going to do great in A-room! Tomomi &amp; I will miss you, but will still get to see you. Congratulations!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thanks for being so well behaved in class XXX</t>
   </si>
   <si>
@@ -1540,6 +1705,12 @@
     <t xml:space="preserve">Well done this month Wako, you’ve been saying all of the sight words clearly (“we”, “like”, “to”), and your listening is very good. You’re able to listen to the name of a flash card, then identify it, which is very impressive.</t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Wako!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s great to see you having so much fun in class, you are remembering new words each month which is great to see! You really enjoyed the “go away scary monsters” song this month, and you’re so kind and gentle with the other kids in class, and always check on them if they are sad – thank you!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great job during circle time this month XXX, you were saying “I like ocean and seashells” without any help!</t>
   </si>
   <si>
@@ -1552,6 +1723,12 @@
     <t xml:space="preserve">Welcome to First Adventure Miyu! You’ve been so brave this month when saying goodbye to Mom! </t>
   </si>
   <si>
+    <t xml:space="preserve">Happy Halloween Miyu!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ve been so well behaved and happy in class, and able to say some of the flash cards, and months of the year! You really loved the “go away scary monsters” song too – great job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rino</t>
   </si>
   <si>
@@ -1565,6 +1742,12 @@
   </si>
   <si>
     <t xml:space="preserve">Awesome job this month Rino! You’ve been trying to speak a lot, and are even starting to repeat phonics, which is so impressive! You love to walk around and play with the instruments, I can’t wait to see you get even better next month!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Halloween Rino!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomomi &amp; I are so impressed with you, you’ve been growing up so fast! You were saying “witch” and “ghost”, and many other phonics in class. You’re always so happy in class, and love running around the classroom – well done!</t>
   </si>
   <si>
     <t xml:space="preserve">Awesome work reading the sight words this month XXX</t>
@@ -2959,6 +3142,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3004,10 +3191,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3158,26 +3341,26 @@
   </sheetPr>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="49.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="39.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="43.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="8.84"/>
   </cols>
   <sheetData>
@@ -3641,7 +3824,7 @@
       <c r="H15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3764,7 +3947,7 @@
       <c r="H19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -4107,7 +4290,7 @@
       <c r="J30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4133,7 +4316,7 @@
       <c r="J31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K31" s="0"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
@@ -4229,8 +4412,11 @@
       <c r="H35" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="I35" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,28 +4424,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>213</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,28 +4456,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,152 +4488,167 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="0"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K39" s="7"/>
-      <c r="L39" s="0"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K40" s="0"/>
-      <c r="L40" s="0"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
+        <v>292</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
+        <v>299</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>19</v>
@@ -4449,13 +4656,15 @@
       <c r="H43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="0"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,29 +4672,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="0"/>
+        <v>311</v>
+      </c>
+      <c r="L44" s="8"/>
       <c r="M44" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,358 +4705,400 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L45" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F46" s="6"/>
       <c r="H46" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L46" s="0"/>
+        <v>323</v>
+      </c>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L47" s="0"/>
+        <v>330</v>
+      </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K48" s="0"/>
-      <c r="L48" s="0"/>
+        <v>338</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
+        <v>346</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F51" s="6"/>
       <c r="H51" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
+        <v>355</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>347</v>
+        <v>360</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>357</v>
+        <v>372</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
+        <v>249</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
+        <v>381</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
+        <v>394</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>169</v>
@@ -4855,28 +5109,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>385</v>
+        <v>405</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,13 +5141,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>389</v>
+        <v>410</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,28 +5158,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>396</v>
+        <v>418</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,324 +5190,354 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>404</v>
+        <v>427</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>406</v>
+      <c r="B63" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>145</v>
+        <v>435</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>412</v>
+      <c r="B64" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>212</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>145</v>
+        <v>441</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>417</v>
+      <c r="B65" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>145</v>
+        <v>448</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>423</v>
+      <c r="B66" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>145</v>
+        <v>456</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>246</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>145</v>
+        <v>247</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K67" s="0"/>
+        <v>41</v>
+      </c>
+      <c r="K67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>433</v>
+      <c r="B68" s="10" t="s">
+        <v>465</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>145</v>
+        <v>470</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>145</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>438</v>
+      <c r="B69" s="10" t="s">
+        <v>473</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>440</v>
+        <v>474</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>145</v>
+        <v>478</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>443</v>
+      <c r="B70" s="10" t="s">
+        <v>480</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>448</v>
+        <v>145</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>145</v>
+        <v>486</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>450</v>
+      <c r="B71" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>145</v>
+        <v>493</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>456</v>
+      <c r="B72" s="10" t="s">
+        <v>496</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="I72" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="J72" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>460</v>
+      <c r="B73" s="10" t="s">
+        <v>501</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>448</v>
+        <v>145</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>145</v>
@@ -5254,93 +5547,105 @@
       <c r="A74" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>464</v>
+      <c r="B74" s="10" t="s">
+        <v>506</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>448</v>
+        <v>145</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>467</v>
+      <c r="B75" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>145</v>
+        <v>513</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K75" s="0"/>
-      <c r="L75" s="0"/>
+        <v>472</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>235</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>145</v>
+        <v>519</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
+        <v>521</v>
+      </c>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>474</v>
+      <c r="B77" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>145</v>
+        <v>527</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>145</v>
@@ -5348,157 +5653,181 @@
       <c r="K77" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L77" s="0"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>479</v>
+      <c r="B78" s="10" t="s">
+        <v>529</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>448</v>
+        <v>145</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>484</v>
+      <c r="B79" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>145</v>
+        <v>540</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>491</v>
+      <c r="B80" s="10" t="s">
+        <v>544</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>145</v>
+        <v>540</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>493</v>
+      <c r="B81" s="10" t="s">
+        <v>547</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>448</v>
+        <v>145</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>500</v>
+      <c r="B82" s="10" t="s">
+        <v>555</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>145</v>
+        <v>560</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>507</v>
+      <c r="B83" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5506,36 +5835,39 @@
       <c r="A84" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>509</v>
+      <c r="B84" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>145</v>
+        <v>573</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="F85" s="1" t="s">
         <v>145</v>
       </c>
@@ -5549,14 +5881,14 @@
         <v>145</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="F86" s="1" t="s">
         <v>145</v>
       </c>
@@ -5567,58 +5899,58 @@
         <v>145</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="G87" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K87" s="0"/>
+      <c r="K87" s="8"/>
       <c r="L87" s="1" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="G88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K88" s="0"/>
+      <c r="K88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="K89" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K90" s="0"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K91" s="1" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K92" s="1" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K93" s="1" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K94" s="1" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K95" s="1" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -5639,1217 +5971,1216 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="4.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="4.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="8" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="8" width="8.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>526</v>
+      <c r="D1" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>528</v>
+      <c r="D2" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>530</v>
+      <c r="B3" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="B4" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>534</v>
+      <c r="B5" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>537</v>
+      <c r="B6" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>540</v>
+      <c r="D8" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>542</v>
+      <c r="D9" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>544</v>
+      <c r="D10" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>546</v>
+      <c r="B11" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>548</v>
+      <c r="B12" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>550</v>
+      <c r="B13" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>552</v>
+      <c r="B14" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>554</v>
+      <c r="B15" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>556</v>
+      <c r="B16" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="B17" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>560</v>
+      <c r="D18" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>562</v>
+      <c r="D20" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="B21" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>565</v>
+      <c r="B22" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="B23" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>567</v>
+      <c r="B24" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>569</v>
+      <c r="D25" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>572</v>
+      <c r="B27" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>574</v>
+      <c r="D28" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>576</v>
+      <c r="D29" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
+      <c r="A31" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="B31" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
+      <c r="A32" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>581</v>
+      <c r="D32" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="n">
+      <c r="A33" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>584</v>
+      <c r="B33" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="n">
+      <c r="A34" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="B34" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>600</v>
+      <c r="E41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="n">
+      <c r="A42" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>602</v>
+      <c r="D42" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="n">
+      <c r="A43" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>604</v>
+      <c r="D43" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="n">
+      <c r="A44" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="B44" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="n">
+      <c r="A45" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>609</v>
+      <c r="B45" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="n">
+      <c r="A46" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>611</v>
+      <c r="D46" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="n">
+      <c r="A47" s="17" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>611</v>
+      <c r="D47" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="n">
+      <c r="A48" s="17" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>614</v>
+      <c r="D48" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="n">
+      <c r="A49" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="B49" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="n">
+      <c r="A50" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>617</v>
+      <c r="B50" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="n">
+      <c r="A51" s="17" t="n">
         <v>51</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>620</v>
+      <c r="B51" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="n">
+      <c r="A52" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>623</v>
+      <c r="B52" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="n">
+      <c r="A53" s="17" t="n">
         <v>53</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>626</v>
+      <c r="B53" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="n">
+      <c r="A54" s="17" t="n">
         <v>54</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>628</v>
+      <c r="B54" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="n">
+      <c r="A55" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>630</v>
+      <c r="B55" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="n">
+      <c r="A56" s="17" t="n">
         <v>56</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="B56" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="n">
+      <c r="A57" s="17" t="n">
         <v>57</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>634</v>
+      <c r="B57" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="n">
+      <c r="A58" s="17" t="n">
         <v>58</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="E58" s="0" t="s">
+      <c r="B58" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="n">
+      <c r="A59" s="17" t="n">
         <v>59</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="E59" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="n">
+      <c r="A60" s="17" t="n">
         <v>60</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="E60" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="n">
+      <c r="A61" s="17" t="n">
         <v>61</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="C61" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="n">
+      <c r="A62" s="17" t="n">
         <v>62</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="E62" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="n">
+      <c r="A63" s="17" t="n">
         <v>63</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E63" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="n">
+      <c r="A64" s="17" t="n">
         <v>64</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>645</v>
+        <v>480</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="n">
+      <c r="A65" s="17" t="n">
         <v>65</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>647</v>
+        <v>488</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="n">
+      <c r="A66" s="17" t="n">
         <v>66</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="E66" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="n">
+      <c r="A67" s="17" t="n">
         <v>67</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>651</v>
+      <c r="C67" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="n">
+      <c r="A68" s="17" t="n">
         <v>68</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="E68" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="n">
+      <c r="A69" s="17" t="n">
         <v>69</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="E69" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="n">
+      <c r="A70" s="17" t="n">
         <v>70</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>655</v>
+        <v>535</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="n">
+      <c r="A71" s="17" t="n">
         <v>71</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="E71" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="n">
+      <c r="A72" s="17" t="n">
         <v>72</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="E72" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="n">
+      <c r="A73" s="17" t="n">
         <v>73</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="E73" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6871,17 +7202,17 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="8" width="8.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6892,26 +7223,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="G1" s="25"/>
       <c r="I1" s="25" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>663</v>
+        <v>724</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,28 +7253,28 @@
         <v>227</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>667</v>
+        <v>726</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>728</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="H2" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,31 +7282,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>672</v>
+        <v>733</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>675</v>
+        <v>734</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="H3" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>678</v>
+        <v>739</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6983,31 +7314,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>680</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>682</v>
+        <v>741</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>743</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="H4" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>684</v>
+        <v>745</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>685</v>
+        <v>746</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>686</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,31 +7346,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>689</v>
+        <v>748</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>750</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="H5" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>691</v>
+        <v>752</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>692</v>
+        <v>753</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>693</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7050,28 +7381,28 @@
         <v>246</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>696</v>
+        <v>755</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>757</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="H6" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>698</v>
+        <v>759</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>699</v>
+        <v>760</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>700</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,28 +7413,28 @@
         <v>112</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>667</v>
+        <v>762</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>728</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="H7" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>704</v>
+        <v>765</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>706</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,30 +7445,30 @@
         <v>8</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>709</v>
+        <v>768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>770</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="H8" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>712</v>
+        <v>773</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>713</v>
-      </c>
-      <c r="L8" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7149,34 +7480,34 @@
         <v>139</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>716</v>
+        <v>775</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>777</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>717</v>
-      </c>
-      <c r="H9" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="L9" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>721</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,32 +7515,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="E10" s="20" t="s">
-        <v>723</v>
+      <c r="E10" s="8" t="s">
+        <v>784</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>724</v>
-      </c>
-      <c r="H10" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>725</v>
+        <v>786</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="L10" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7217,37 +7548,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>732</v>
+        <v>791</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>793</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>733</v>
-      </c>
-      <c r="H11" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>734</v>
+        <v>795</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>735</v>
+        <v>796</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="L11" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>737</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,35 +7586,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>738</v>
+        <v>799</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>739</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>741</v>
+        <v>800</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>802</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>742</v>
-      </c>
-      <c r="H12" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>743</v>
+        <v>804</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="L12" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>745</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,35 +7622,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>746</v>
+        <v>807</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>749</v>
+        <v>808</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>810</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>750</v>
-      </c>
-      <c r="H13" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="L13" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>753</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,37 +7658,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>754</v>
+        <v>815</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>755</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>757</v>
+        <v>816</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>818</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="H14" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>759</v>
+        <v>820</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>760</v>
+        <v>821</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="L14" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>762</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,10 +7696,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>763</v>
+        <v>824</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,10 +7707,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>765</v>
+        <v>826</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>766</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,33 +7718,33 @@
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>767</v>
+        <v>828</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>770</v>
+        <v>829</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>831</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="H17" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>772</v>
+        <v>833</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>773</v>
+        <v>834</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="L17" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7422,23 +7753,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>775</v>
+        <v>836</v>
       </c>
       <c r="C18" s="28"/>
       <c r="F18" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="H18" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>777</v>
+        <v>838</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>145</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>778</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7446,31 +7777,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>781</v>
+        <v>840</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>842</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>782</v>
-      </c>
-      <c r="H19" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>783</v>
+        <v>844</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>145</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>784</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,18 +7809,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>785</v>
+        <v>846</v>
       </c>
       <c r="C20" s="28"/>
-      <c r="E20" s="20"/>
       <c r="F20" s="29" t="s">
-        <v>786</v>
-      </c>
-      <c r="H20" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>787</v>
+        <v>848</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>145</v>
@@ -7503,25 +7833,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>788</v>
+        <v>849</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>791</v>
+        <v>850</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>852</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>792</v>
-      </c>
-      <c r="H21" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>793</v>
+        <v>854</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>145</v>
@@ -7535,17 +7865,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="C22" s="28"/>
-      <c r="E22" s="20"/>
       <c r="F22" s="29"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30" t="s">
-        <v>794</v>
+        <v>855</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>795</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,19 +7885,18 @@
         <v>235</v>
       </c>
       <c r="C23" s="28"/>
-      <c r="E23" s="20"/>
       <c r="F23" s="29"/>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>796</v>
+        <v>857</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>797</v>
+        <v>858</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,20 +7907,20 @@
         <v>52</v>
       </c>
       <c r="C24" s="28"/>
-      <c r="E24" s="20" t="s">
-        <v>799</v>
+      <c r="E24" s="8" t="s">
+        <v>860</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>800</v>
-      </c>
-      <c r="H24" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>801</v>
+        <v>862</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>802</v>
+        <v>863</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>145</v>
@@ -7603,28 +7931,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>806</v>
+        <v>865</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>867</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="H25" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>808</v>
+        <v>869</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>809</v>
+        <v>870</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>145</v>
@@ -7635,21 +7963,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>813</v>
+        <v>872</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>874</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="H26" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I26" s="35"/>
@@ -7663,28 +7991,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>815</v>
+        <v>876</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>816</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>818</v>
+        <v>877</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>879</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="H27" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>820</v>
+        <v>881</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>821</v>
+        <v>882</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>145</v>
@@ -7698,20 +8026,20 @@
         <v>193</v>
       </c>
       <c r="C28" s="28"/>
-      <c r="E28" s="20" t="s">
-        <v>822</v>
+      <c r="E28" s="8" t="s">
+        <v>883</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="H28" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>824</v>
+        <v>885</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>825</v>
+        <v>886</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>145</v>
@@ -7722,28 +8050,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>829</v>
+        <v>888</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>890</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="H29" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>831</v>
+        <v>892</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>832</v>
+        <v>893</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>145</v>
@@ -7754,28 +8082,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>833</v>
+        <v>894</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>834</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>836</v>
+        <v>895</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>897</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>837</v>
-      </c>
-      <c r="H30" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>838</v>
+        <v>899</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>839</v>
+        <v>900</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>145</v>
@@ -7786,28 +8114,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>840</v>
+        <v>901</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>842</v>
+        <v>902</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>903</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>843</v>
+        <v>904</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>844</v>
-      </c>
-      <c r="H31" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>845</v>
+        <v>906</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>846</v>
+        <v>907</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>145</v>
@@ -7818,28 +8146,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>847</v>
+        <v>908</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>849</v>
+        <v>909</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>910</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>851</v>
-      </c>
-      <c r="H32" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>853</v>
+        <v>914</v>
       </c>
       <c r="K32" s="30" t="s">
         <v>145</v>
@@ -7850,28 +8178,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>854</v>
+        <v>915</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>855</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>857</v>
+        <v>916</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>918</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>858</v>
-      </c>
-      <c r="H33" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>859</v>
+        <v>920</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>860</v>
+        <v>921</v>
       </c>
       <c r="K33" s="30" t="s">
         <v>145</v>
@@ -7882,28 +8210,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>861</v>
+        <v>922</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>862</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>864</v>
+        <v>923</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>925</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>865</v>
-      </c>
-      <c r="H34" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>866</v>
+        <v>927</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>867</v>
+        <v>928</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>145</v>
@@ -7914,28 +8242,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>870</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>871</v>
+        <v>930</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>932</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>872</v>
-      </c>
-      <c r="H35" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>873</v>
+        <v>934</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>874</v>
+        <v>935</v>
       </c>
       <c r="K35" s="30" t="s">
         <v>145</v>
@@ -7946,28 +8274,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>875</v>
+        <v>936</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>876</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>878</v>
+        <v>937</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>879</v>
-      </c>
-      <c r="H36" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>881</v>
+        <v>942</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>145</v>
@@ -7978,23 +8306,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>882</v>
+        <v>943</v>
       </c>
       <c r="C37" s="28"/>
       <c r="E37" s="28" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>884</v>
-      </c>
-      <c r="H37" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>885</v>
+        <v>946</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="K37" s="30" t="s">
         <v>145</v>
@@ -8005,27 +8333,27 @@
         <v>37</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>887</v>
+        <v>948</v>
       </c>
       <c r="C38" s="28"/>
       <c r="E38" s="28" t="s">
-        <v>888</v>
+        <v>949</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="H38" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>890</v>
+        <v>951</v>
       </c>
       <c r="K38" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8034,18 +8362,18 @@
         <v>0</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>891</v>
+        <v>952</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="F42" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8057,15 +8385,15 @@
         <v>43</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="F43" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8087,13 +8415,13 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="8" width="8.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
@@ -8116,36 +8444,34 @@
         <v>227</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+        <v>732</v>
+      </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="M2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>672</v>
+        <v>733</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>686</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>693</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8153,7 +8479,7 @@
         <v>246</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>700</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8161,7 +8487,7 @@
         <v>112</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>706</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,7 +8495,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>713</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,95 +8503,95 @@
         <v>139</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>727</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>736</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>738</v>
+        <v>799</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>744</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>746</v>
+        <v>807</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>754</v>
+        <v>815</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>761</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>763</v>
+        <v>824</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
-        <v>765</v>
+        <v>826</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>766</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>767</v>
+        <v>828</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>774</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>775</v>
+        <v>836</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>778</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>784</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>795</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,7 +8599,7 @@
         <v>235</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
